--- a/excel/templates/bp_order_report.xlsx
+++ b/excel/templates/bp_order_report.xlsx
@@ -744,7 +744,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -884,6 +884,42 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -900,42 +936,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="distributed" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -967,6 +967,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1474,13 +1475,13 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="64" t="s">
+      <c r="H10" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="64"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
+      <c r="L10" s="76"/>
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1491,11 +1492,11 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="64"/>
-      <c r="L11" s="64"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="76"/>
+      <c r="L11" s="76"/>
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1506,11 +1507,11 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="64"/>
-      <c r="L12" s="64"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="76"/>
+      <c r="L12" s="76"/>
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -1536,13 +1537,13 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="63" t="s">
+      <c r="H14" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
-      <c r="L14" s="63"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="75"/>
+      <c r="K14" s="75"/>
+      <c r="L14" s="75"/>
       <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:21" ht="10.8" customHeight="1" x14ac:dyDescent="0.2">
@@ -1553,11 +1554,11 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="75"/>
+      <c r="K15" s="75"/>
+      <c r="L15" s="75"/>
       <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1569,14 +1570,14 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="43"/>
-      <c r="I16" s="60" t="s">
+      <c r="I16" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="60"/>
-      <c r="K16" s="59" t="s">
+      <c r="J16" s="72"/>
+      <c r="K16" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="L16" s="59"/>
+      <c r="L16" s="71"/>
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
@@ -1696,15 +1697,15 @@
         <v>4</v>
       </c>
       <c r="C24" s="19"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="70"/>
-      <c r="K24" s="70"/>
-      <c r="L24" s="70"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="64"/>
+      <c r="L24" s="64"/>
       <c r="M24" s="20"/>
     </row>
     <row r="25" spans="1:13" ht="7.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1730,15 +1731,15 @@
       <c r="C26" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="71"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="72"/>
-      <c r="I26" s="72"/>
-      <c r="J26" s="72"/>
-      <c r="K26" s="72"/>
-      <c r="L26" s="72"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="66"/>
+      <c r="J26" s="66"/>
+      <c r="K26" s="66"/>
+      <c r="L26" s="66"/>
       <c r="M26" s="20"/>
     </row>
     <row r="27" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1747,15 +1748,15 @@
       <c r="C27" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="73"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="74"/>
-      <c r="G27" s="74"/>
-      <c r="H27" s="74"/>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
-      <c r="K27" s="74"/>
-      <c r="L27" s="74"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="68"/>
+      <c r="H27" s="68"/>
+      <c r="I27" s="68"/>
+      <c r="J27" s="68"/>
+      <c r="K27" s="68"/>
+      <c r="L27" s="68"/>
       <c r="M27" s="31"/>
     </row>
     <row r="28" spans="1:13" ht="7.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1779,17 +1780,17 @@
         <v>8</v>
       </c>
       <c r="C29" s="32"/>
-      <c r="D29" s="66" t="s">
+      <c r="D29" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="E29" s="66"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="66"/>
-      <c r="H29" s="66"/>
-      <c r="I29" s="66"/>
-      <c r="J29" s="66"/>
-      <c r="K29" s="66"/>
-      <c r="L29" s="66"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="60"/>
+      <c r="K29" s="60"/>
+      <c r="L29" s="60"/>
       <c r="M29" s="31"/>
     </row>
     <row r="30" spans="1:13" s="33" customFormat="1" ht="7.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1813,15 +1814,15 @@
         <v>9</v>
       </c>
       <c r="C31" s="19"/>
-      <c r="D31" s="75"/>
-      <c r="E31" s="75"/>
-      <c r="F31" s="75"/>
-      <c r="G31" s="75"/>
-      <c r="H31" s="75"/>
-      <c r="I31" s="75"/>
-      <c r="J31" s="75"/>
-      <c r="K31" s="75"/>
-      <c r="L31" s="75"/>
+      <c r="D31" s="69"/>
+      <c r="E31" s="69"/>
+      <c r="F31" s="69"/>
+      <c r="G31" s="69"/>
+      <c r="H31" s="69"/>
+      <c r="I31" s="69"/>
+      <c r="J31" s="69"/>
+      <c r="K31" s="69"/>
+      <c r="L31" s="69"/>
       <c r="M31" s="20"/>
     </row>
     <row r="32" spans="1:13" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -1830,32 +1831,32 @@
         <v>10</v>
       </c>
       <c r="C32" s="19"/>
-      <c r="D32" s="75"/>
-      <c r="E32" s="76"/>
-      <c r="F32" s="76"/>
-      <c r="G32" s="76"/>
-      <c r="H32" s="76"/>
-      <c r="I32" s="76"/>
-      <c r="J32" s="76"/>
-      <c r="K32" s="76"/>
-      <c r="L32" s="76"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="70"/>
+      <c r="F32" s="70"/>
+      <c r="G32" s="70"/>
+      <c r="H32" s="70"/>
+      <c r="I32" s="70"/>
+      <c r="J32" s="70"/>
+      <c r="K32" s="70"/>
+      <c r="L32" s="70"/>
       <c r="M32" s="20"/>
     </row>
     <row r="33" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="28"/>
       <c r="B33" s="29"/>
       <c r="C33" s="30"/>
-      <c r="D33" s="61" t="s">
+      <c r="D33" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="62"/>
-      <c r="J33" s="62"/>
-      <c r="K33" s="62"/>
-      <c r="L33" s="62"/>
+      <c r="E33" s="74"/>
+      <c r="F33" s="74"/>
+      <c r="G33" s="74"/>
+      <c r="H33" s="74"/>
+      <c r="I33" s="74"/>
+      <c r="J33" s="74"/>
+      <c r="K33" s="74"/>
+      <c r="L33" s="74"/>
       <c r="M33" s="34"/>
     </row>
     <row r="34" spans="1:14" ht="7.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1879,15 +1880,15 @@
         <v>12</v>
       </c>
       <c r="C35" s="32"/>
-      <c r="D35" s="65"/>
-      <c r="E35" s="66"/>
-      <c r="F35" s="66"/>
-      <c r="G35" s="66"/>
-      <c r="H35" s="66"/>
-      <c r="I35" s="66"/>
-      <c r="J35" s="66"/>
-      <c r="K35" s="66"/>
-      <c r="L35" s="66"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="60"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="60"/>
+      <c r="I35" s="60"/>
+      <c r="J35" s="60"/>
+      <c r="K35" s="60"/>
+      <c r="L35" s="60"/>
       <c r="M35" s="31"/>
       <c r="N35" s="35"/>
     </row>
@@ -1912,19 +1913,24 @@
         <v>13</v>
       </c>
       <c r="C37" s="38"/>
-      <c r="D37" s="67"/>
-      <c r="E37" s="68"/>
-      <c r="F37" s="68"/>
-      <c r="G37" s="68"/>
-      <c r="H37" s="68"/>
-      <c r="I37" s="68"/>
-      <c r="J37" s="68"/>
-      <c r="K37" s="68"/>
-      <c r="L37" s="68"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="62"/>
+      <c r="F37" s="62"/>
+      <c r="G37" s="62"/>
+      <c r="H37" s="62"/>
+      <c r="I37" s="62"/>
+      <c r="J37" s="62"/>
+      <c r="K37" s="62"/>
+      <c r="L37" s="62"/>
       <c r="M37" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="D33:L33"/>
+    <mergeCell ref="H14:L15"/>
+    <mergeCell ref="H10:L12"/>
     <mergeCell ref="D35:L35"/>
     <mergeCell ref="D37:L37"/>
     <mergeCell ref="D24:L24"/>
@@ -1933,11 +1939,6 @@
     <mergeCell ref="D29:L29"/>
     <mergeCell ref="D31:L31"/>
     <mergeCell ref="D32:L32"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="D33:L33"/>
-    <mergeCell ref="H14:L15"/>
-    <mergeCell ref="H10:L12"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.86614173228346458" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -2842,7 +2843,10 @@
     </row>
     <row r="9" spans="1:35" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
-      <c r="B9" s="10"/>
+      <c r="B9" s="88" t="str">
+        <f>IF(注文書!B9="", "", 注文書!B9&amp;"　殿")</f>
+        <v/>
+      </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="9"/>
@@ -3077,18 +3081,18 @@
         <v>4</v>
       </c>
       <c r="C24" s="19"/>
-      <c r="D24" s="69">
+      <c r="D24" s="63">
         <f>注文書!D24</f>
         <v>0</v>
       </c>
-      <c r="E24" s="70"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="70"/>
-      <c r="K24" s="70"/>
-      <c r="L24" s="70"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="64"/>
+      <c r="L24" s="64"/>
       <c r="M24" s="20"/>
     </row>
     <row r="25" spans="1:13" ht="7.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3114,18 +3118,18 @@
       <c r="C26" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="71" t="str">
+      <c r="D26" s="65" t="str">
         <f>IF(注文書!D26="", "", 注文書!D26)</f>
         <v/>
       </c>
-      <c r="E26" s="72"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="72"/>
-      <c r="I26" s="72"/>
-      <c r="J26" s="72"/>
-      <c r="K26" s="72"/>
-      <c r="L26" s="72"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="66"/>
+      <c r="J26" s="66"/>
+      <c r="K26" s="66"/>
+      <c r="L26" s="66"/>
       <c r="M26" s="20"/>
     </row>
     <row r="27" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3134,18 +3138,18 @@
       <c r="C27" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="73" t="str">
+      <c r="D27" s="67" t="str">
         <f>IF(注文書!D27="", "", 注文書!D27)</f>
         <v/>
       </c>
-      <c r="E27" s="74"/>
-      <c r="F27" s="74"/>
-      <c r="G27" s="74"/>
-      <c r="H27" s="74"/>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
-      <c r="K27" s="74"/>
-      <c r="L27" s="74"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="68"/>
+      <c r="H27" s="68"/>
+      <c r="I27" s="68"/>
+      <c r="J27" s="68"/>
+      <c r="K27" s="68"/>
+      <c r="L27" s="68"/>
       <c r="M27" s="31"/>
     </row>
     <row r="28" spans="1:13" ht="7.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3169,18 +3173,18 @@
         <v>8</v>
       </c>
       <c r="C29" s="32"/>
-      <c r="D29" s="66" t="str">
+      <c r="D29" s="60" t="str">
         <f>注文書!D29</f>
         <v>発注者の指定する納品物一式</v>
       </c>
-      <c r="E29" s="66"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="66"/>
-      <c r="H29" s="66"/>
-      <c r="I29" s="66"/>
-      <c r="J29" s="66"/>
-      <c r="K29" s="66"/>
-      <c r="L29" s="66"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="60"/>
+      <c r="K29" s="60"/>
+      <c r="L29" s="60"/>
       <c r="M29" s="31"/>
     </row>
     <row r="30" spans="1:13" s="33" customFormat="1" ht="7.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3224,35 +3228,35 @@
         <v>32</v>
       </c>
       <c r="C32" s="19"/>
-      <c r="D32" s="75">
+      <c r="D32" s="69">
         <f>注文書!D32</f>
         <v>0</v>
       </c>
-      <c r="E32" s="76"/>
-      <c r="F32" s="76"/>
-      <c r="G32" s="76"/>
-      <c r="H32" s="76"/>
-      <c r="I32" s="76"/>
-      <c r="J32" s="76"/>
-      <c r="K32" s="76"/>
-      <c r="L32" s="76"/>
+      <c r="E32" s="70"/>
+      <c r="F32" s="70"/>
+      <c r="G32" s="70"/>
+      <c r="H32" s="70"/>
+      <c r="I32" s="70"/>
+      <c r="J32" s="70"/>
+      <c r="K32" s="70"/>
+      <c r="L32" s="70"/>
       <c r="M32" s="20"/>
     </row>
     <row r="33" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="28"/>
       <c r="B33" s="29"/>
       <c r="C33" s="30"/>
-      <c r="D33" s="61" t="s">
+      <c r="D33" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="62"/>
-      <c r="J33" s="62"/>
-      <c r="K33" s="62"/>
-      <c r="L33" s="62"/>
+      <c r="E33" s="74"/>
+      <c r="F33" s="74"/>
+      <c r="G33" s="74"/>
+      <c r="H33" s="74"/>
+      <c r="I33" s="74"/>
+      <c r="J33" s="74"/>
+      <c r="K33" s="74"/>
+      <c r="L33" s="74"/>
       <c r="M33" s="34"/>
     </row>
     <row r="34" spans="1:13" ht="7.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3276,18 +3280,18 @@
         <v>12</v>
       </c>
       <c r="C35" s="32"/>
-      <c r="D35" s="65">
+      <c r="D35" s="59">
         <f>注文書!D35</f>
         <v>0</v>
       </c>
-      <c r="E35" s="66"/>
-      <c r="F35" s="66"/>
-      <c r="G35" s="66"/>
-      <c r="H35" s="66"/>
-      <c r="I35" s="66"/>
-      <c r="J35" s="66"/>
-      <c r="K35" s="66"/>
-      <c r="L35" s="66"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="60"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="60"/>
+      <c r="I35" s="60"/>
+      <c r="J35" s="60"/>
+      <c r="K35" s="60"/>
+      <c r="L35" s="60"/>
       <c r="M35" s="31"/>
     </row>
     <row r="36" spans="1:13" ht="7.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3311,18 +3315,18 @@
         <v>13</v>
       </c>
       <c r="C37" s="38"/>
-      <c r="D37" s="67">
+      <c r="D37" s="61">
         <f>注文書!D37</f>
         <v>0</v>
       </c>
-      <c r="E37" s="68"/>
-      <c r="F37" s="68"/>
-      <c r="G37" s="68"/>
-      <c r="H37" s="68"/>
-      <c r="I37" s="68"/>
-      <c r="J37" s="68"/>
-      <c r="K37" s="68"/>
-      <c r="L37" s="68"/>
+      <c r="E37" s="62"/>
+      <c r="F37" s="62"/>
+      <c r="G37" s="62"/>
+      <c r="H37" s="62"/>
+      <c r="I37" s="62"/>
+      <c r="J37" s="62"/>
+      <c r="K37" s="62"/>
+      <c r="L37" s="62"/>
       <c r="M37" s="39"/>
     </row>
   </sheetData>
@@ -3747,17 +3751,17 @@
       </c>
       <c r="C24" s="79"/>
       <c r="D24" s="48"/>
-      <c r="E24" s="69">
+      <c r="E24" s="63">
         <f>注文書!D24</f>
         <v>0</v>
       </c>
-      <c r="F24" s="70"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="70"/>
-      <c r="K24" s="70"/>
-      <c r="L24" s="70"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="64"/>
+      <c r="L24" s="64"/>
       <c r="M24" s="20"/>
     </row>
     <row r="25" spans="1:13" ht="7.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3784,17 +3788,17 @@
       <c r="D26" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="71" t="str">
+      <c r="E26" s="65" t="str">
         <f>IF(注文書!D26="", "", 注文書!D26)</f>
         <v/>
       </c>
-      <c r="F26" s="72"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="72"/>
-      <c r="I26" s="72"/>
-      <c r="J26" s="72"/>
-      <c r="K26" s="72"/>
-      <c r="L26" s="72"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="66"/>
+      <c r="J26" s="66"/>
+      <c r="K26" s="66"/>
+      <c r="L26" s="66"/>
       <c r="M26" s="20"/>
     </row>
     <row r="27" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3804,17 +3808,17 @@
       <c r="D27" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="E27" s="73" t="str">
+      <c r="E27" s="67" t="str">
         <f>IF(注文書!D27="", "", 注文書!D27)</f>
         <v/>
       </c>
-      <c r="F27" s="74"/>
-      <c r="G27" s="74"/>
-      <c r="H27" s="74"/>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
-      <c r="K27" s="74"/>
-      <c r="L27" s="74"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="68"/>
+      <c r="H27" s="68"/>
+      <c r="I27" s="68"/>
+      <c r="J27" s="68"/>
+      <c r="K27" s="68"/>
+      <c r="L27" s="68"/>
       <c r="M27" s="31"/>
     </row>
     <row r="28" spans="1:13" ht="7.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3839,17 +3843,17 @@
       </c>
       <c r="C29" s="79"/>
       <c r="D29" s="52"/>
-      <c r="E29" s="66" t="str">
+      <c r="E29" s="60" t="str">
         <f>注文書!D29</f>
         <v>発注者の指定する納品物一式</v>
       </c>
-      <c r="F29" s="66"/>
-      <c r="G29" s="66"/>
-      <c r="H29" s="66"/>
-      <c r="I29" s="66"/>
-      <c r="J29" s="66"/>
-      <c r="K29" s="66"/>
-      <c r="L29" s="66"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="60"/>
+      <c r="K29" s="60"/>
+      <c r="L29" s="60"/>
       <c r="M29" s="31"/>
     </row>
     <row r="30" spans="1:13" s="33" customFormat="1" ht="7.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3894,17 +3898,17 @@
       </c>
       <c r="C32" s="87"/>
       <c r="D32" s="48"/>
-      <c r="E32" s="75">
+      <c r="E32" s="69">
         <f>注文書!D32</f>
         <v>0</v>
       </c>
-      <c r="F32" s="76"/>
-      <c r="G32" s="76"/>
-      <c r="H32" s="76"/>
-      <c r="I32" s="76"/>
-      <c r="J32" s="76"/>
-      <c r="K32" s="76"/>
-      <c r="L32" s="76"/>
+      <c r="F32" s="70"/>
+      <c r="G32" s="70"/>
+      <c r="H32" s="70"/>
+      <c r="I32" s="70"/>
+      <c r="J32" s="70"/>
+      <c r="K32" s="70"/>
+      <c r="L32" s="70"/>
       <c r="M32" s="20"/>
     </row>
     <row r="33" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3912,16 +3916,16 @@
       <c r="B33" s="32"/>
       <c r="C33" s="29"/>
       <c r="D33" s="51"/>
-      <c r="E33" s="61" t="s">
+      <c r="E33" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="61"/>
-      <c r="J33" s="61"/>
-      <c r="K33" s="61"/>
-      <c r="L33" s="61"/>
+      <c r="F33" s="73"/>
+      <c r="G33" s="73"/>
+      <c r="H33" s="73"/>
+      <c r="I33" s="73"/>
+      <c r="J33" s="73"/>
+      <c r="K33" s="73"/>
+      <c r="L33" s="73"/>
       <c r="M33" s="34"/>
     </row>
     <row r="34" spans="1:13" ht="7.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3946,17 +3950,17 @@
       </c>
       <c r="C35" s="79"/>
       <c r="D35" s="52"/>
-      <c r="E35" s="65">
+      <c r="E35" s="59">
         <f>注文書!D35</f>
         <v>0</v>
       </c>
-      <c r="F35" s="66"/>
-      <c r="G35" s="66"/>
-      <c r="H35" s="66"/>
-      <c r="I35" s="66"/>
-      <c r="J35" s="66"/>
-      <c r="K35" s="66"/>
-      <c r="L35" s="66"/>
+      <c r="F35" s="60"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="60"/>
+      <c r="I35" s="60"/>
+      <c r="J35" s="60"/>
+      <c r="K35" s="60"/>
+      <c r="L35" s="60"/>
       <c r="M35" s="31"/>
     </row>
     <row r="36" spans="1:13" ht="7.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3981,17 +3985,17 @@
       </c>
       <c r="C37" s="81"/>
       <c r="D37" s="53"/>
-      <c r="E37" s="67">
+      <c r="E37" s="61">
         <f>注文書!D37</f>
         <v>0</v>
       </c>
-      <c r="F37" s="68"/>
-      <c r="G37" s="68"/>
-      <c r="H37" s="68"/>
-      <c r="I37" s="68"/>
-      <c r="J37" s="68"/>
-      <c r="K37" s="68"/>
-      <c r="L37" s="68"/>
+      <c r="F37" s="62"/>
+      <c r="G37" s="62"/>
+      <c r="H37" s="62"/>
+      <c r="I37" s="62"/>
+      <c r="J37" s="62"/>
+      <c r="K37" s="62"/>
+      <c r="L37" s="62"/>
       <c r="M37" s="39"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
@@ -4011,6 +4015,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B31:C31"/>
     <mergeCell ref="E33:L33"/>
     <mergeCell ref="E35:L35"/>
     <mergeCell ref="E37:L37"/>
@@ -4020,15 +4033,6 @@
     <mergeCell ref="E29:L29"/>
     <mergeCell ref="E31:L31"/>
     <mergeCell ref="E32:L32"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B31:C31"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.86614173228346458" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/excel/templates/bp_order_report.xlsx
+++ b/excel/templates/bp_order_report.xlsx
@@ -19,6 +19,7 @@
   <definedNames>
     <definedName name="bp_company_name">注文書!$B$9</definedName>
     <definedName name="bp_order_no">注文書!$L$2</definedName>
+    <definedName name="contract_date">注文書!$B$18</definedName>
     <definedName name="deliverables">注文書!$D$29</definedName>
     <definedName name="end_date">注文書!$D$27</definedName>
     <definedName name="payment_condition">注文書!$D$35</definedName>
@@ -884,42 +885,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -936,6 +902,42 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="distributed" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -967,7 +969,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1475,13 +1476,13 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="76" t="s">
+      <c r="H10" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="76"/>
-      <c r="J10" s="76"/>
-      <c r="K10" s="76"/>
-      <c r="L10" s="76"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="65"/>
+      <c r="L10" s="65"/>
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1492,11 +1493,11 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="76"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="76"/>
-      <c r="K11" s="76"/>
-      <c r="L11" s="76"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="65"/>
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1507,11 +1508,11 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="76"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="76"/>
-      <c r="K12" s="76"/>
-      <c r="L12" s="76"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="65"/>
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -1537,13 +1538,13 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="75" t="s">
+      <c r="H14" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="75"/>
-      <c r="J14" s="75"/>
-      <c r="K14" s="75"/>
-      <c r="L14" s="75"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="64"/>
       <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:21" ht="10.8" customHeight="1" x14ac:dyDescent="0.2">
@@ -1554,11 +1555,11 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="75"/>
-      <c r="I15" s="75"/>
-      <c r="J15" s="75"/>
-      <c r="K15" s="75"/>
-      <c r="L15" s="75"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="64"/>
       <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1570,14 +1571,14 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="43"/>
-      <c r="I16" s="72" t="s">
+      <c r="I16" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="72"/>
-      <c r="K16" s="71" t="s">
+      <c r="J16" s="61"/>
+      <c r="K16" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="L16" s="71"/>
+      <c r="L16" s="60"/>
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
@@ -1596,10 +1597,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="45" t="str">
-        <f>IF(printed_date="", "", printed_date)</f>
-        <v/>
-      </c>
+      <c r="B18" s="45"/>
       <c r="C18" s="1" t="s">
         <v>2</v>
       </c>
@@ -1697,15 +1695,15 @@
         <v>4</v>
       </c>
       <c r="C24" s="19"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="64"/>
-      <c r="K24" s="64"/>
-      <c r="L24" s="64"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="71"/>
+      <c r="L24" s="71"/>
       <c r="M24" s="20"/>
     </row>
     <row r="25" spans="1:13" ht="7.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1731,15 +1729,15 @@
       <c r="C26" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="65"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="66"/>
-      <c r="I26" s="66"/>
-      <c r="J26" s="66"/>
-      <c r="K26" s="66"/>
-      <c r="L26" s="66"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="73"/>
+      <c r="K26" s="73"/>
+      <c r="L26" s="73"/>
       <c r="M26" s="20"/>
     </row>
     <row r="27" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1748,15 +1746,15 @@
       <c r="C27" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="67"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="68"/>
-      <c r="G27" s="68"/>
-      <c r="H27" s="68"/>
-      <c r="I27" s="68"/>
-      <c r="J27" s="68"/>
-      <c r="K27" s="68"/>
-      <c r="L27" s="68"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="75"/>
+      <c r="I27" s="75"/>
+      <c r="J27" s="75"/>
+      <c r="K27" s="75"/>
+      <c r="L27" s="75"/>
       <c r="M27" s="31"/>
     </row>
     <row r="28" spans="1:13" ht="7.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1780,17 +1778,17 @@
         <v>8</v>
       </c>
       <c r="C29" s="32"/>
-      <c r="D29" s="60" t="s">
+      <c r="D29" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="60"/>
-      <c r="J29" s="60"/>
-      <c r="K29" s="60"/>
-      <c r="L29" s="60"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="67"/>
+      <c r="J29" s="67"/>
+      <c r="K29" s="67"/>
+      <c r="L29" s="67"/>
       <c r="M29" s="31"/>
     </row>
     <row r="30" spans="1:13" s="33" customFormat="1" ht="7.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1814,15 +1812,15 @@
         <v>9</v>
       </c>
       <c r="C31" s="19"/>
-      <c r="D31" s="69"/>
-      <c r="E31" s="69"/>
-      <c r="F31" s="69"/>
-      <c r="G31" s="69"/>
-      <c r="H31" s="69"/>
-      <c r="I31" s="69"/>
-      <c r="J31" s="69"/>
-      <c r="K31" s="69"/>
-      <c r="L31" s="69"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="76"/>
+      <c r="F31" s="76"/>
+      <c r="G31" s="76"/>
+      <c r="H31" s="76"/>
+      <c r="I31" s="76"/>
+      <c r="J31" s="76"/>
+      <c r="K31" s="76"/>
+      <c r="L31" s="76"/>
       <c r="M31" s="20"/>
     </row>
     <row r="32" spans="1:13" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -1831,32 +1829,32 @@
         <v>10</v>
       </c>
       <c r="C32" s="19"/>
-      <c r="D32" s="69"/>
-      <c r="E32" s="70"/>
-      <c r="F32" s="70"/>
-      <c r="G32" s="70"/>
-      <c r="H32" s="70"/>
-      <c r="I32" s="70"/>
-      <c r="J32" s="70"/>
-      <c r="K32" s="70"/>
-      <c r="L32" s="70"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="77"/>
+      <c r="G32" s="77"/>
+      <c r="H32" s="77"/>
+      <c r="I32" s="77"/>
+      <c r="J32" s="77"/>
+      <c r="K32" s="77"/>
+      <c r="L32" s="77"/>
       <c r="M32" s="20"/>
     </row>
     <row r="33" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="28"/>
       <c r="B33" s="29"/>
       <c r="C33" s="30"/>
-      <c r="D33" s="73" t="s">
+      <c r="D33" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="E33" s="74"/>
-      <c r="F33" s="74"/>
-      <c r="G33" s="74"/>
-      <c r="H33" s="74"/>
-      <c r="I33" s="74"/>
-      <c r="J33" s="74"/>
-      <c r="K33" s="74"/>
-      <c r="L33" s="74"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="63"/>
+      <c r="K33" s="63"/>
+      <c r="L33" s="63"/>
       <c r="M33" s="34"/>
     </row>
     <row r="34" spans="1:14" ht="7.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1880,15 +1878,15 @@
         <v>12</v>
       </c>
       <c r="C35" s="32"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="60"/>
-      <c r="F35" s="60"/>
-      <c r="G35" s="60"/>
-      <c r="H35" s="60"/>
-      <c r="I35" s="60"/>
-      <c r="J35" s="60"/>
-      <c r="K35" s="60"/>
-      <c r="L35" s="60"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="67"/>
+      <c r="H35" s="67"/>
+      <c r="I35" s="67"/>
+      <c r="J35" s="67"/>
+      <c r="K35" s="67"/>
+      <c r="L35" s="67"/>
       <c r="M35" s="31"/>
       <c r="N35" s="35"/>
     </row>
@@ -1913,24 +1911,19 @@
         <v>13</v>
       </c>
       <c r="C37" s="38"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="62"/>
-      <c r="F37" s="62"/>
-      <c r="G37" s="62"/>
-      <c r="H37" s="62"/>
-      <c r="I37" s="62"/>
-      <c r="J37" s="62"/>
-      <c r="K37" s="62"/>
-      <c r="L37" s="62"/>
+      <c r="D37" s="68"/>
+      <c r="E37" s="69"/>
+      <c r="F37" s="69"/>
+      <c r="G37" s="69"/>
+      <c r="H37" s="69"/>
+      <c r="I37" s="69"/>
+      <c r="J37" s="69"/>
+      <c r="K37" s="69"/>
+      <c r="L37" s="69"/>
       <c r="M37" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="D33:L33"/>
-    <mergeCell ref="H14:L15"/>
-    <mergeCell ref="H10:L12"/>
     <mergeCell ref="D35:L35"/>
     <mergeCell ref="D37:L37"/>
     <mergeCell ref="D24:L24"/>
@@ -1939,6 +1932,11 @@
     <mergeCell ref="D29:L29"/>
     <mergeCell ref="D31:L31"/>
     <mergeCell ref="D32:L32"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="D33:L33"/>
+    <mergeCell ref="H14:L15"/>
+    <mergeCell ref="H10:L12"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.86614173228346458" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -2843,7 +2841,7 @@
     </row>
     <row r="9" spans="1:35" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
-      <c r="B9" s="88" t="str">
+      <c r="B9" s="59" t="str">
         <f>IF(注文書!B9="", "", 注文書!B9&amp;"　殿")</f>
         <v/>
       </c>
@@ -3081,18 +3079,18 @@
         <v>4</v>
       </c>
       <c r="C24" s="19"/>
-      <c r="D24" s="63">
+      <c r="D24" s="70">
         <f>注文書!D24</f>
         <v>0</v>
       </c>
-      <c r="E24" s="64"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="64"/>
-      <c r="K24" s="64"/>
-      <c r="L24" s="64"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="71"/>
+      <c r="L24" s="71"/>
       <c r="M24" s="20"/>
     </row>
     <row r="25" spans="1:13" ht="7.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3118,18 +3116,18 @@
       <c r="C26" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="65" t="str">
+      <c r="D26" s="72" t="str">
         <f>IF(注文書!D26="", "", 注文書!D26)</f>
         <v/>
       </c>
-      <c r="E26" s="66"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="66"/>
-      <c r="I26" s="66"/>
-      <c r="J26" s="66"/>
-      <c r="K26" s="66"/>
-      <c r="L26" s="66"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="73"/>
+      <c r="K26" s="73"/>
+      <c r="L26" s="73"/>
       <c r="M26" s="20"/>
     </row>
     <row r="27" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3138,18 +3136,18 @@
       <c r="C27" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="67" t="str">
+      <c r="D27" s="74" t="str">
         <f>IF(注文書!D27="", "", 注文書!D27)</f>
         <v/>
       </c>
-      <c r="E27" s="68"/>
-      <c r="F27" s="68"/>
-      <c r="G27" s="68"/>
-      <c r="H27" s="68"/>
-      <c r="I27" s="68"/>
-      <c r="J27" s="68"/>
-      <c r="K27" s="68"/>
-      <c r="L27" s="68"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="75"/>
+      <c r="I27" s="75"/>
+      <c r="J27" s="75"/>
+      <c r="K27" s="75"/>
+      <c r="L27" s="75"/>
       <c r="M27" s="31"/>
     </row>
     <row r="28" spans="1:13" ht="7.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3173,18 +3171,18 @@
         <v>8</v>
       </c>
       <c r="C29" s="32"/>
-      <c r="D29" s="60" t="str">
+      <c r="D29" s="67" t="str">
         <f>注文書!D29</f>
         <v>発注者の指定する納品物一式</v>
       </c>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="60"/>
-      <c r="J29" s="60"/>
-      <c r="K29" s="60"/>
-      <c r="L29" s="60"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="67"/>
+      <c r="J29" s="67"/>
+      <c r="K29" s="67"/>
+      <c r="L29" s="67"/>
       <c r="M29" s="31"/>
     </row>
     <row r="30" spans="1:13" s="33" customFormat="1" ht="7.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3208,18 +3206,18 @@
         <v>9</v>
       </c>
       <c r="C31" s="19"/>
-      <c r="D31" s="77">
+      <c r="D31" s="78">
         <f>注文書!D31</f>
         <v>0</v>
       </c>
-      <c r="E31" s="77"/>
-      <c r="F31" s="77"/>
-      <c r="G31" s="77"/>
-      <c r="H31" s="77"/>
-      <c r="I31" s="77"/>
-      <c r="J31" s="77"/>
-      <c r="K31" s="77"/>
-      <c r="L31" s="77"/>
+      <c r="E31" s="78"/>
+      <c r="F31" s="78"/>
+      <c r="G31" s="78"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="78"/>
+      <c r="J31" s="78"/>
+      <c r="K31" s="78"/>
+      <c r="L31" s="78"/>
       <c r="M31" s="20"/>
     </row>
     <row r="32" spans="1:13" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -3228,35 +3226,35 @@
         <v>32</v>
       </c>
       <c r="C32" s="19"/>
-      <c r="D32" s="69">
+      <c r="D32" s="76">
         <f>注文書!D32</f>
         <v>0</v>
       </c>
-      <c r="E32" s="70"/>
-      <c r="F32" s="70"/>
-      <c r="G32" s="70"/>
-      <c r="H32" s="70"/>
-      <c r="I32" s="70"/>
-      <c r="J32" s="70"/>
-      <c r="K32" s="70"/>
-      <c r="L32" s="70"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="77"/>
+      <c r="G32" s="77"/>
+      <c r="H32" s="77"/>
+      <c r="I32" s="77"/>
+      <c r="J32" s="77"/>
+      <c r="K32" s="77"/>
+      <c r="L32" s="77"/>
       <c r="M32" s="20"/>
     </row>
     <row r="33" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="28"/>
       <c r="B33" s="29"/>
       <c r="C33" s="30"/>
-      <c r="D33" s="73" t="s">
+      <c r="D33" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="E33" s="74"/>
-      <c r="F33" s="74"/>
-      <c r="G33" s="74"/>
-      <c r="H33" s="74"/>
-      <c r="I33" s="74"/>
-      <c r="J33" s="74"/>
-      <c r="K33" s="74"/>
-      <c r="L33" s="74"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="63"/>
+      <c r="K33" s="63"/>
+      <c r="L33" s="63"/>
       <c r="M33" s="34"/>
     </row>
     <row r="34" spans="1:13" ht="7.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3280,18 +3278,18 @@
         <v>12</v>
       </c>
       <c r="C35" s="32"/>
-      <c r="D35" s="59">
+      <c r="D35" s="66">
         <f>注文書!D35</f>
         <v>0</v>
       </c>
-      <c r="E35" s="60"/>
-      <c r="F35" s="60"/>
-      <c r="G35" s="60"/>
-      <c r="H35" s="60"/>
-      <c r="I35" s="60"/>
-      <c r="J35" s="60"/>
-      <c r="K35" s="60"/>
-      <c r="L35" s="60"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="67"/>
+      <c r="H35" s="67"/>
+      <c r="I35" s="67"/>
+      <c r="J35" s="67"/>
+      <c r="K35" s="67"/>
+      <c r="L35" s="67"/>
       <c r="M35" s="31"/>
     </row>
     <row r="36" spans="1:13" ht="7.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3315,18 +3313,18 @@
         <v>13</v>
       </c>
       <c r="C37" s="38"/>
-      <c r="D37" s="61">
+      <c r="D37" s="68">
         <f>注文書!D37</f>
         <v>0</v>
       </c>
-      <c r="E37" s="62"/>
-      <c r="F37" s="62"/>
-      <c r="G37" s="62"/>
-      <c r="H37" s="62"/>
-      <c r="I37" s="62"/>
-      <c r="J37" s="62"/>
-      <c r="K37" s="62"/>
-      <c r="L37" s="62"/>
+      <c r="E37" s="69"/>
+      <c r="F37" s="69"/>
+      <c r="G37" s="69"/>
+      <c r="H37" s="69"/>
+      <c r="I37" s="69"/>
+      <c r="J37" s="69"/>
+      <c r="K37" s="69"/>
+      <c r="L37" s="69"/>
       <c r="M37" s="39"/>
     </row>
   </sheetData>
@@ -3387,7 +3385,7 @@
     </row>
     <row r="2" spans="1:21" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="83" t="s">
         <v>35</v>
       </c>
       <c r="C2" s="1"/>
@@ -3409,7 +3407,7 @@
     </row>
     <row r="3" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="83"/>
+      <c r="B3" s="84"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -3424,7 +3422,7 @@
     </row>
     <row r="4" spans="1:21" ht="22.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="84"/>
+      <c r="B4" s="85"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -3649,11 +3647,11 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="85" t="str">
+      <c r="B18" s="86" t="str">
         <f>IF(注文書!B18="", "", 注文書!B18)</f>
         <v/>
       </c>
-      <c r="C18" s="85"/>
+      <c r="C18" s="86"/>
       <c r="D18" s="1" t="s">
         <v>17</v>
       </c>
@@ -3746,22 +3744,22 @@
     </row>
     <row r="24" spans="1:13" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="17"/>
-      <c r="B24" s="78" t="s">
+      <c r="B24" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="79"/>
+      <c r="C24" s="80"/>
       <c r="D24" s="48"/>
-      <c r="E24" s="63">
+      <c r="E24" s="70">
         <f>注文書!D24</f>
         <v>0</v>
       </c>
-      <c r="F24" s="64"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="64"/>
-      <c r="K24" s="64"/>
-      <c r="L24" s="64"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="71"/>
+      <c r="L24" s="71"/>
       <c r="M24" s="20"/>
     </row>
     <row r="25" spans="1:13" ht="7.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3781,24 +3779,24 @@
     </row>
     <row r="26" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="17"/>
-      <c r="B26" s="86" t="s">
+      <c r="B26" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="87"/>
+      <c r="C26" s="88"/>
       <c r="D26" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="65" t="str">
+      <c r="E26" s="72" t="str">
         <f>IF(注文書!D26="", "", 注文書!D26)</f>
         <v/>
       </c>
-      <c r="F26" s="66"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="66"/>
-      <c r="I26" s="66"/>
-      <c r="J26" s="66"/>
-      <c r="K26" s="66"/>
-      <c r="L26" s="66"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="73"/>
+      <c r="K26" s="73"/>
+      <c r="L26" s="73"/>
       <c r="M26" s="20"/>
     </row>
     <row r="27" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3808,17 +3806,17 @@
       <c r="D27" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="E27" s="67" t="str">
+      <c r="E27" s="74" t="str">
         <f>IF(注文書!D27="", "", 注文書!D27)</f>
         <v/>
       </c>
-      <c r="F27" s="68"/>
-      <c r="G27" s="68"/>
-      <c r="H27" s="68"/>
-      <c r="I27" s="68"/>
-      <c r="J27" s="68"/>
-      <c r="K27" s="68"/>
-      <c r="L27" s="68"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="75"/>
+      <c r="I27" s="75"/>
+      <c r="J27" s="75"/>
+      <c r="K27" s="75"/>
+      <c r="L27" s="75"/>
       <c r="M27" s="31"/>
     </row>
     <row r="28" spans="1:13" ht="7.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3838,22 +3836,22 @@
     </row>
     <row r="29" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="28"/>
-      <c r="B29" s="78" t="s">
+      <c r="B29" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="79"/>
+      <c r="C29" s="80"/>
       <c r="D29" s="52"/>
-      <c r="E29" s="60" t="str">
+      <c r="E29" s="67" t="str">
         <f>注文書!D29</f>
         <v>発注者の指定する納品物一式</v>
       </c>
-      <c r="F29" s="60"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="60"/>
-      <c r="J29" s="60"/>
-      <c r="K29" s="60"/>
-      <c r="L29" s="60"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="67"/>
+      <c r="J29" s="67"/>
+      <c r="K29" s="67"/>
+      <c r="L29" s="67"/>
       <c r="M29" s="31"/>
     </row>
     <row r="30" spans="1:13" s="33" customFormat="1" ht="7.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3873,42 +3871,42 @@
     </row>
     <row r="31" spans="1:13" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
-      <c r="B31" s="86" t="s">
+      <c r="B31" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="87"/>
+      <c r="C31" s="88"/>
       <c r="D31" s="48"/>
-      <c r="E31" s="77">
+      <c r="E31" s="78">
         <f>注文書!D31</f>
         <v>0</v>
       </c>
-      <c r="F31" s="77"/>
-      <c r="G31" s="77"/>
-      <c r="H31" s="77"/>
-      <c r="I31" s="77"/>
-      <c r="J31" s="77"/>
-      <c r="K31" s="77"/>
-      <c r="L31" s="77"/>
+      <c r="F31" s="78"/>
+      <c r="G31" s="78"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="78"/>
+      <c r="J31" s="78"/>
+      <c r="K31" s="78"/>
+      <c r="L31" s="78"/>
       <c r="M31" s="20"/>
     </row>
     <row r="32" spans="1:13" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="17"/>
-      <c r="B32" s="86" t="s">
+      <c r="B32" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="87"/>
+      <c r="C32" s="88"/>
       <c r="D32" s="48"/>
-      <c r="E32" s="69">
+      <c r="E32" s="76">
         <f>注文書!D32</f>
         <v>0</v>
       </c>
-      <c r="F32" s="70"/>
-      <c r="G32" s="70"/>
-      <c r="H32" s="70"/>
-      <c r="I32" s="70"/>
-      <c r="J32" s="70"/>
-      <c r="K32" s="70"/>
-      <c r="L32" s="70"/>
+      <c r="F32" s="77"/>
+      <c r="G32" s="77"/>
+      <c r="H32" s="77"/>
+      <c r="I32" s="77"/>
+      <c r="J32" s="77"/>
+      <c r="K32" s="77"/>
+      <c r="L32" s="77"/>
       <c r="M32" s="20"/>
     </row>
     <row r="33" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3916,16 +3914,16 @@
       <c r="B33" s="32"/>
       <c r="C33" s="29"/>
       <c r="D33" s="51"/>
-      <c r="E33" s="73" t="s">
+      <c r="E33" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="F33" s="73"/>
-      <c r="G33" s="73"/>
-      <c r="H33" s="73"/>
-      <c r="I33" s="73"/>
-      <c r="J33" s="73"/>
-      <c r="K33" s="73"/>
-      <c r="L33" s="73"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="62"/>
+      <c r="J33" s="62"/>
+      <c r="K33" s="62"/>
+      <c r="L33" s="62"/>
       <c r="M33" s="34"/>
     </row>
     <row r="34" spans="1:13" ht="7.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3945,22 +3943,22 @@
     </row>
     <row r="35" spans="1:13" ht="73.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="28"/>
-      <c r="B35" s="78" t="s">
+      <c r="B35" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="C35" s="79"/>
+      <c r="C35" s="80"/>
       <c r="D35" s="52"/>
-      <c r="E35" s="59">
+      <c r="E35" s="66">
         <f>注文書!D35</f>
         <v>0</v>
       </c>
-      <c r="F35" s="60"/>
-      <c r="G35" s="60"/>
-      <c r="H35" s="60"/>
-      <c r="I35" s="60"/>
-      <c r="J35" s="60"/>
-      <c r="K35" s="60"/>
-      <c r="L35" s="60"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="67"/>
+      <c r="H35" s="67"/>
+      <c r="I35" s="67"/>
+      <c r="J35" s="67"/>
+      <c r="K35" s="67"/>
+      <c r="L35" s="67"/>
       <c r="M35" s="31"/>
     </row>
     <row r="36" spans="1:13" ht="7.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3980,22 +3978,22 @@
     </row>
     <row r="37" spans="1:13" s="33" customFormat="1" ht="117" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="36"/>
-      <c r="B37" s="80" t="s">
+      <c r="B37" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="81"/>
+      <c r="C37" s="82"/>
       <c r="D37" s="53"/>
-      <c r="E37" s="61">
+      <c r="E37" s="68">
         <f>注文書!D37</f>
         <v>0</v>
       </c>
-      <c r="F37" s="62"/>
-      <c r="G37" s="62"/>
-      <c r="H37" s="62"/>
-      <c r="I37" s="62"/>
-      <c r="J37" s="62"/>
-      <c r="K37" s="62"/>
-      <c r="L37" s="62"/>
+      <c r="F37" s="69"/>
+      <c r="G37" s="69"/>
+      <c r="H37" s="69"/>
+      <c r="I37" s="69"/>
+      <c r="J37" s="69"/>
+      <c r="K37" s="69"/>
+      <c r="L37" s="69"/>
       <c r="M37" s="39"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
@@ -4015,6 +4013,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="E33:L33"/>
+    <mergeCell ref="E35:L35"/>
+    <mergeCell ref="E37:L37"/>
+    <mergeCell ref="E24:L24"/>
+    <mergeCell ref="E26:L26"/>
+    <mergeCell ref="E27:L27"/>
+    <mergeCell ref="E29:L29"/>
+    <mergeCell ref="E31:L31"/>
+    <mergeCell ref="E32:L32"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="B2:B4"/>
@@ -4024,15 +4031,6 @@
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B31:C31"/>
-    <mergeCell ref="E33:L33"/>
-    <mergeCell ref="E35:L35"/>
-    <mergeCell ref="E37:L37"/>
-    <mergeCell ref="E24:L24"/>
-    <mergeCell ref="E26:L26"/>
-    <mergeCell ref="E27:L27"/>
-    <mergeCell ref="E29:L29"/>
-    <mergeCell ref="E31:L31"/>
-    <mergeCell ref="E32:L32"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.86614173228346458" header="0.51181102362204722" footer="0.51181102362204722"/>
